--- a/Config/WeightsCosts.xlsx
+++ b/Config/WeightsCosts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CISNET\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DALY Weights" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +242,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -256,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -277,7 +283,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,22 +570,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,7 +593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -594,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -602,7 +609,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -610,7 +617,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -618,7 +625,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -626,7 +633,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -634,7 +641,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -642,7 +649,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -650,7 +657,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -658,22 +665,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,7 +694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -701,7 +708,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -715,7 +722,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -735,7 +742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -760,12 +767,12 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -776,49 +783,49 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="12">
         <v>117.03849292812023</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="12">
         <v>56.017155398551346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="12">
         <v>37.666707940405217</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="12">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="12">
         <f>37.6667079404052+B9</f>
         <v>297.6032853811551</v>
       </c>
@@ -826,10 +833,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -837,10 +844,10 @@
         <v>259.93657744074989</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -848,37 +855,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="12">
         <v>2616.6901825763516</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="12">
         <v>8532.6772573885864</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="12">
         <v>8569.8537150505363</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -888,55 +895,55 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="12">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="13">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="13">
         <v>0.1333</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="13">
         <v>0.17460000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" s="8"/>
     </row>
   </sheetData>
